--- a/Documentation/Final measurements.xlsx
+++ b/Documentation/Final measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\Documents\fyp\SophieCOMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC027D13-AF33-4FAC-B722-C738C5EE5D5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C7070A-E75C-4405-86D2-9A05DB1F8D02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F1D0BC8-AC86-4697-870A-2D7B00BEB50B}"/>
   </bookViews>
@@ -34,21 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Num atoms</t>
   </si>
   <si>
-    <t>PAET w/o analytical info</t>
+    <t>PAET with analytical data collection</t>
   </si>
   <si>
-    <t>MMEA w/o analytical info</t>
+    <t>MMEA with analytical data collection</t>
   </si>
   <si>
-    <t>MMEA w/ analytical info</t>
+    <t>MMEA stand-alone</t>
   </si>
   <si>
-    <t>PAET w/ analytical info</t>
+    <t>PAET stand-alone</t>
+  </si>
+  <si>
+    <t>MMEA (final)</t>
+  </si>
+  <si>
+    <t>PAET (final)</t>
+  </si>
+  <si>
+    <t>MMEA (initial)</t>
+  </si>
+  <si>
+    <t>PAET (initial)</t>
+  </si>
+  <si>
+    <t>MMEA</t>
+  </si>
+  <si>
+    <t>PAET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -101,6 +122,6443 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time taken for algorithms to finish</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2422598165328334E-2"/>
+          <c:y val="0.10973375337412136"/>
+          <c:w val="0.87435524024843425"/>
+          <c:h val="0.69293125213885576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA stand-alone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32341737480834698"/>
+                  <c:y val="-0.5992295110724295"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B030-4660-9D3A-CBD2D9DE410B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA with analytical data collection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14196512564642291"/>
+                  <c:y val="-0.45139529688191232"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B030-4660-9D3A-CBD2D9DE410B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET stand-alone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37094212728359449"/>
+                  <c:y val="0.10059919410128922"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B030-4660-9D3A-CBD2D9DE410B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET with analytical data collection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19668470154102025"/>
+                  <c:y val="0.27380475092129508"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B030-4660-9D3A-CBD2D9DE410B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497921680"/>
+        <c:axId val="497922008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497921680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of atoms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497922008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497922008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497921680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6402640264026403E-3"/>
+          <c:y val="8.7275098372803978E-2"/>
+          <c:w val="0.54644193238221461"/>
+          <c:h val="0.43343484914384034"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of initial and final algorithms' speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA (initial)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-580C-4C22-B47B-7FDBF2AAD5C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA (final)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-580C-4C22-B47B-7FDBF2AAD5C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET (initial)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-580C-4C22-B47B-7FDBF2AAD5C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET (final)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-580C-4C22-B47B-7FDBF2AAD5C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482836856"/>
+        <c:axId val="482833248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482836856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of atoms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482833248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="482833248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482836856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200"/>
+              <a:t>Comparison of trends of initial and final algorithms' speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18788655149449601"/>
+          <c:y val="2.4523160762942781E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13506013240882203"/>
+          <c:y val="8.2696897374701664E-2"/>
+          <c:w val="0.82623339992948641"/>
+          <c:h val="0.70636290627798137"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA (initial)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.69917910447761189"/>
+                  <c:y val="0.67013911068853793"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$47:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E35B-4E78-A942-967A7C50F86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA (final)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43837074470168841"/>
+                  <c:y val="0.39466413122744182"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$47:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E35B-4E78-A942-967A7C50F86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET (initial)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22126865671641791"/>
+                  <c:y val="0.81999944614191689"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$47:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$47:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E35B-4E78-A942-967A7C50F86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET (final)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3631840796020814E-3"/>
+                  <c:y val="0.58777745982221152"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$47:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$47:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E35B-4E78-A942-967A7C50F86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482840464"/>
+        <c:axId val="482842760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482840464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of atoms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482842760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="482842760"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>Time / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482840464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5711207740823449E-3"/>
+          <c:y val="0.8782858092328143"/>
+          <c:w val="0.98534512476985148"/>
+          <c:h val="4.2661379738033939E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time taken for algorithms to finish</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11710738361204526"/>
+          <c:y val="0.11554517133956387"/>
+          <c:w val="0.84255561055516148"/>
+          <c:h val="0.73717001496308288"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="97000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$76:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50FA-4CEE-9958-09A3E38A8A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$76:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$76:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50FA-4CEE-9958-09A3E38A8A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482829968"/>
+        <c:axId val="482832592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482829968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of atoms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482832592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="482832592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482829968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11880751782242387"/>
+          <c:y val="0.11349888956188174"/>
+          <c:w val="0.11948132536576157"/>
+          <c:h val="0.21380126126768087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B395F351-E6FC-4C94-877C-C730C3D3A909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D762A3-BB53-4A6C-B4AB-4C7620A42948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AE8654-4835-4CB7-AAB6-CAD277D4C211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA651A9D-F39B-483E-A3AE-69C1C7FC0AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22683</cdr:x>
+      <cdr:y>0.23529</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41972</cdr:x>
+      <cdr:y>0.33666</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C0F35E-DA7B-4044-852E-A6E2B28A1B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1111250" y="990600"/>
+          <a:ext cx="944962" cy="426757"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22553</cdr:x>
+      <cdr:y>0.12821</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39478</cdr:x>
+      <cdr:y>0.22957</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B411DA4F-C48F-4709-8011-754E5F9102CC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1104900" y="539750"/>
+          <a:ext cx="829128" cy="426757"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,235 +6858,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73620AD5-9535-4447-AF33-C90A46C6A141}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="H3">
+      <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="F5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="H6">
+      <c r="E6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="F7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="E7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="F8">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="E8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
       <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="F9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="E9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="F10">
         <v>14</v>
       </c>
-      <c r="H10">
+      <c r="E10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>59</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>15</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>16</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
         <v>17</v>
       </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="E35">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
         <v>20</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>66</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>85</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>